--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/projects/Hurricane672.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA5AF4-1ABF-4040-9D33-967C2F8D76E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD213AC-4369-DC40-99EF-0A044612BFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="3040" windowWidth="29400" windowHeight="14940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="7" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="错误类型1" sheetId="2" r:id="rId10"/>
     <sheet name="市场周期矩阵" sheetId="14" r:id="rId11"/>
     <sheet name="市场周期矩阵备份" sheetId="15" r:id="rId12"/>
+    <sheet name="复盘标签" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">错误原因!$A$2:$A$24</definedName>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="266">
   <si>
     <t>若判断错误，只需等待。除非可反向操作</t>
   </si>
@@ -1153,6 +1154,18 @@
   <si>
     <t>多头：下1/3
 空头：上1/3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>高开</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回踩EMA形成双底</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上到达MM</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1986,9 +1999,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1996,6 +2006,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4183,7 +4196,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="40">
+    <row r="1" spans="1:8" ht="20">
       <c r="A1" s="87"/>
       <c r="B1" s="87" t="s">
         <v>198</v>
@@ -4249,13 +4262,13 @@
       <c r="E3" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="96" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4266,7 +4279,7 @@
       <c r="B4" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="95" t="s">
         <v>255</v>
       </c>
       <c r="D4" s="94" t="s">
@@ -4275,13 +4288,13 @@
       <c r="E4" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="96" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4292,10 +4305,10 @@
       <c r="B5" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="95" t="s">
         <v>254</v>
       </c>
       <c r="E5" s="94" t="s">
@@ -4318,13 +4331,13 @@
       <c r="B6" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="96" t="s">
         <v>257</v>
       </c>
       <c r="F6" s="94" t="s">
@@ -4344,13 +4357,13 @@
       <c r="B7" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="96" t="s">
         <v>257</v>
       </c>
       <c r="F7" s="95" t="s">
@@ -4455,11 +4468,11 @@
       <c r="E12" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="1:8" ht="40">
       <c r="A13" s="87" t="s">
@@ -4468,16 +4481,16 @@
       <c r="B13" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="99"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" spans="1:8" ht="40" customHeight="1">
       <c r="A14" s="87" t="s">
@@ -4486,11 +4499,11 @@
       <c r="B14" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="95" t="s">
         <v>249</v>
       </c>
@@ -4508,11 +4521,11 @@
       <c r="B15" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="94" t="s">
         <v>202</v>
       </c>
@@ -4530,9 +4543,9 @@
       <c r="B16" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="95" t="s">
         <v>258</v>
       </c>
@@ -4559,11 +4572,11 @@
       <c r="E17" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="99" t="s">
+      <c r="F17" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4800,11 +4813,120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D451E4C2-A033-2249-9848-C2C2F827D152}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20">
+      <c r="A1" s="99">
+        <v>46043</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+    </row>
+    <row r="2" spans="1:8" ht="19">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+    </row>
+    <row r="3" spans="1:8" ht="19">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+    </row>
+    <row r="5" spans="1:8" ht="19">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+    </row>
+    <row r="6" spans="1:8" ht="19">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+    </row>
+    <row r="7" spans="1:8" ht="19">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+    </row>
+    <row r="8" spans="1:8" ht="19">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D913-E04B-4936-BE50-1908BF22E4CE}">
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/交易记录.xlsx
+++ b/交易记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/projects/Hurricane672.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD213AC-4369-DC40-99EF-0A044612BFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DAE4BD-02B3-0B43-B99D-41F0AD7BBE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6640" yWindow="3420" windowWidth="29400" windowHeight="18460" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总结" sheetId="7" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="市场周期矩阵" sheetId="14" r:id="rId11"/>
     <sheet name="市场周期矩阵备份" sheetId="15" r:id="rId12"/>
     <sheet name="复盘标签" sheetId="17" r:id="rId13"/>
+    <sheet name="突破数据" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">错误原因!$A$2:$A$24</definedName>
@@ -57,7 +58,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -79,8 +80,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="4">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -90,12 +98,15 @@
     <bk>
       <rc t="1" v="2"/>
     </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="321">
   <si>
     <t>若判断错误，只需等待。除非可反向操作</t>
   </si>
@@ -809,10 +820,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>盈亏金额</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1166,6 +1173,228 @@
   </si>
   <si>
     <t>向上到达MM</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏R值</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均R值</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>R值标准差</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQN</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统期望</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQN(N=100)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘区间突破</t>
+  </si>
+  <si>
+    <t>开盘区间突破</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.705倍MM</t>
+  </si>
+  <si>
+    <t>0.705倍MM</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘交易区间突破后入场</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转k线获得持续行情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破结构的第二根k线收盘后出现即时行情</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时持续行情到1R目标的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时持续行情到2R目标的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二根K线比第一根K线小，并出现更深回调（PB&gt;0.5R）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时持续行情持续时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时持续行情持续超过x根k线的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时持续行情小于0.5R的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;70%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;40%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调后出现第二波段的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;90%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二波段与第一波段相等</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二波段大于第一波段的2倍</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于一倍62%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二波段很小</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有第二波段</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现在第一和第二波段的突破结构</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>前7k，开盘失败</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-29k，分批入场成功概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-53k，第2及之后波段形成的结构失败</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>54-65k，分批入场成功率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本同8-29k，分批入场成功概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>66k之后，无结论</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构内出现缺口盈利的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续FTk线产生缺口盈利的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3第4波段产生缺口盈利概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2波段前扫止损的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3第4波段扫止损出现第2波段的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫止损结构发生在小于50%的位置分批入场挽回的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>较大</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫止损结构发生在大于50%的位置分批入场挽回的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调持续k线数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均3，多达7-11，12根以上概率显著降低</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调中回调到0.5R以内的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调更深甚至超过1R的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调幅度达到0.75R保本和小亏的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度回调变成反转的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调小于0.75R亏损的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续行情未出现回调直接到1R的概率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%超过1R</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>很大</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>很小</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1710,7 +1939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2002,13 +2231,22 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2256,6 +2494,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10.55000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.55000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,7 +3887,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -3654,6 +3898,10 @@
   </rv>
   <rv s="0">
     <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -3673,6 +3921,7 @@
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
 </richValueRels>
 </file>
 
@@ -3973,50 +4222,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D56360-B00D-421E-86F8-E05D6038C35C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="12" style="85" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="85"/>
+    <col min="6" max="6" width="12.83203125" style="85" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="85" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="E1" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="85" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="92">
         <f>COUNTIF(日志重制!Q:Q,"盈利")/(COUNTIF(日志重制!Q:Q,"盈利")+COUNTIF(日志重制!Q:Q,"亏损"))</f>
         <v>1</v>
       </c>
       <c r="B2" s="85">
         <f>SUM(日志重制!R:R)</f>
-        <v>10.55000000000002</v>
-      </c>
-      <c r="C2" s="85">
+        <v>191.55</v>
+      </c>
+      <c r="C2" s="90">
         <f>AVERAGEIF(日志重制!R:R,"&gt;0")</f>
-        <v>3.5166666666666733</v>
+        <v>47.887500000000003</v>
       </c>
       <c r="D2" s="85" t="e">
         <f>AVERAGEIF(日志重制!T:T,"&lt;0")</f>
@@ -4025,6 +4295,26 @@
       <c r="E2" s="85" t="e">
         <f>C2/-D2</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="90">
+        <f>AVERAGE(日志重制!U:U)</f>
+        <v>0.63531881910075538</v>
+      </c>
+      <c r="G2" s="90">
+        <f>STDEV(日志重制!U:U)</f>
+        <v>0.31651262169744432</v>
+      </c>
+      <c r="H2" s="85" t="e">
+        <f>AVERAGEIF(日志重制!U:U,"&gt;=0")*A2+AVERAGEIF(日志重制!U:U,"&lt;0")*(1-A2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" s="90">
+        <f>SQRT(COUNT(日志重制!U:U))*F2/G2</f>
+        <v>4.0144927914316115</v>
+      </c>
+      <c r="J2" s="90">
+        <f>F2/G2*SQRT(100)</f>
+        <v>20.072463957158057</v>
       </c>
     </row>
   </sheetData>
@@ -4199,384 +4489,384 @@
     <row r="1" spans="1:8" ht="20">
       <c r="A1" s="87"/>
       <c r="B1" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="D1" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="E1" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="F1" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="G1" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="H1" s="87" t="s">
         <v>203</v>
-      </c>
-      <c r="H1" s="87" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20">
       <c r="A3" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F3" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H3" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40">
       <c r="A4" s="87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4" s="87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G4" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H4" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40">
       <c r="A5" s="87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G5" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H5" s="87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20">
       <c r="A6" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D6" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H6" s="87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40">
       <c r="A7" s="87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="96" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>258</v>
-      </c>
       <c r="G7" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40">
       <c r="A8" s="87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G8" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H8" s="94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20">
       <c r="A10" s="87"/>
       <c r="B10" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="D10" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="E10" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="F10" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="G10" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="H10" s="87" t="s">
         <v>203</v>
-      </c>
-      <c r="H10" s="87" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40">
       <c r="A11" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H11" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20">
       <c r="A12" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
+        <v>247</v>
+      </c>
+      <c r="F12" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" ht="40">
       <c r="A13" s="87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="98"/>
+        <v>249</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="100"/>
       <c r="E13" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
+        <v>260</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:8" ht="40" customHeight="1">
       <c r="A14" s="87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="98" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
+        <v>250</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H14" s="87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
+        <v>251</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H15" s="87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="40">
       <c r="A16" s="87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
+        <v>251</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
       <c r="F16" s="95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G16" s="94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16" s="87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="40" customHeight="1">
       <c r="A17" s="87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
+        <v>180</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4604,207 +4894,207 @@
     <row r="1" spans="1:8" ht="40">
       <c r="A1" s="87"/>
       <c r="B1" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="D1" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="E1" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="F1" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="G1" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="H1" s="87" t="s">
         <v>203</v>
-      </c>
-      <c r="H1" s="87" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60">
       <c r="A2" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="E2" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="F2" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="G2" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="H2" s="87" t="s">
         <v>209</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60">
       <c r="A3" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="87" t="s">
+      <c r="E3" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="F3" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="G3" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="H3" s="87" t="s">
         <v>215</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="80">
       <c r="A4" s="87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="D4" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="87" t="s">
+      <c r="F4" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="G4" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="H4" s="87" t="s">
         <v>221</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="80">
       <c r="A5" s="87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="D5" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="E5" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="87" t="s">
+      <c r="G5" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="H5" s="87" t="s">
         <v>227</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
       <c r="A6" s="87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="D6" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="E6" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="F6" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="87" t="s">
+      <c r="H6" s="87" t="s">
         <v>233</v>
-      </c>
-      <c r="H6" s="87" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80">
       <c r="A7" s="87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="D7" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="E7" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="F7" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="G7" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="87" t="s">
         <v>239</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="87" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="80">
       <c r="A8" s="87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="D8" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="E8" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="F8" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="G8" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="87" t="s">
-        <v>246</v>
-      </c>
       <c r="H8" s="87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +5107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D451E4C2-A033-2249-9848-C2C2F827D152}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4829,17 +5119,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20">
-      <c r="A1" s="99">
+      <c r="A1" s="97">
         <v>46043</v>
       </c>
       <c r="B1" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="D1" s="87" t="s">
         <v>264</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>265</v>
       </c>
       <c r="E1" s="87"/>
       <c r="F1" s="87"/>
@@ -4922,12 +5212,360 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115FEBC6-C471-0C4F-9688-64D9C75DC317}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="73.83203125" style="101" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="101" customWidth="1"/>
+    <col min="3" max="3" width="19" style="101" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20">
+      <c r="A1" s="87"/>
+      <c r="B1" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20">
+      <c r="A2" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="102">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20">
+      <c r="A3" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+    </row>
+    <row r="4" spans="1:3" ht="20">
+      <c r="A4" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+    </row>
+    <row r="5" spans="1:3" ht="20">
+      <c r="A5" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+    </row>
+    <row r="6" spans="1:3" ht="20">
+      <c r="A6" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+    </row>
+    <row r="7" spans="1:3" ht="20">
+      <c r="A7" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+    </row>
+    <row r="8" spans="1:3" ht="20">
+      <c r="A8" s="87" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+    </row>
+    <row r="9" spans="1:3" ht="20">
+      <c r="A9" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20">
+      <c r="A10" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20">
+      <c r="A11" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="102">
+        <v>0.42</v>
+      </c>
+      <c r="C11" s="102">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20">
+      <c r="A12" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="102">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20">
+      <c r="A13" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="102">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20">
+      <c r="A14" s="87" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="102">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20">
+      <c r="A15" s="87" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20">
+      <c r="A16" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20">
+      <c r="A17" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+    </row>
+    <row r="18" spans="1:3" ht="20">
+      <c r="A18" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+    </row>
+    <row r="19" spans="1:3" ht="60">
+      <c r="A19" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20">
+      <c r="A20" s="87" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20">
+      <c r="A21" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="102">
+        <v>0.97</v>
+      </c>
+      <c r="C21" s="87"/>
+    </row>
+    <row r="22" spans="1:3" ht="20">
+      <c r="A22" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="102">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="87"/>
+    </row>
+    <row r="23" spans="1:3" ht="20">
+      <c r="A23" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="102">
+        <v>0.05</v>
+      </c>
+      <c r="C23" s="87"/>
+    </row>
+    <row r="24" spans="1:3" ht="20">
+      <c r="A24" s="87" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="102">
+        <v>0.21</v>
+      </c>
+      <c r="C24" s="102">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20">
+      <c r="A25" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="102">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="87"/>
+    </row>
+    <row r="26" spans="1:3" ht="20">
+      <c r="A26" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20">
+      <c r="A27" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" s="102">
+        <v>0.15</v>
+      </c>
+      <c r="C27" s="102">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60">
+      <c r="A28" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="87"/>
+    </row>
+    <row r="29" spans="1:3" ht="20">
+      <c r="A29" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="102">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C29" s="87"/>
+    </row>
+    <row r="30" spans="1:3" ht="20">
+      <c r="A30" s="87" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="102">
+        <v>0.21</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20">
+      <c r="A31" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="102">
+        <v>0.42</v>
+      </c>
+      <c r="C31" s="102">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20">
+      <c r="A32" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="B32" s="102">
+        <v>0.9</v>
+      </c>
+      <c r="C32" s="102">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20">
+      <c r="A33" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="102">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="102">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20">
+      <c r="A34" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" s="102">
+        <v>0.22</v>
+      </c>
+      <c r="C34" s="102">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D913-E04B-4936-BE50-1908BF22E4CE}">
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="M1" zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -4949,11 +5587,13 @@
     <col min="17" max="18" width="12.5" style="87" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="87" customWidth="1"/>
     <col min="20" max="20" width="27" style="87" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.83203125" style="87" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="87"/>
+    <col min="21" max="21" width="11.83203125" style="90" customWidth="1"/>
+    <col min="22" max="23" width="9" style="87"/>
+    <col min="24" max="24" width="52.83203125" style="87" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20">
+    <row r="1" spans="1:24" ht="20">
       <c r="A1" s="87" t="s">
         <v>7</v>
       </c>
@@ -4973,7 +5613,7 @@
         <v>151</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" s="87" t="s">
         <v>10</v>
@@ -5000,13 +5640,13 @@
         <v>159</v>
       </c>
       <c r="P1" s="87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q1" s="87" t="s">
         <v>148</v>
       </c>
       <c r="R1" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S1" s="87" t="s">
         <v>149</v>
@@ -5014,11 +5654,14 @@
       <c r="T1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="87" t="s">
+      <c r="U1" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="X1" s="87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="177.75" customHeight="1">
+    <row r="2" spans="1:24" ht="177.75" customHeight="1">
       <c r="A2" s="93">
         <v>46028.947916666664</v>
       </c>
@@ -5029,19 +5672,19 @@
         <v>114</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="87" t="s">
         <v>145</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G2" s="87">
         <v>1</v>
       </c>
       <c r="H2" s="87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I2" s="88">
         <f>0.62*2</f>
@@ -5053,11 +5696,11 @@
       <c r="K2" s="88">
         <v>6948</v>
       </c>
-      <c r="L2" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="M2" s="88" t="s">
-        <v>161</v>
+      <c r="L2" s="88">
+        <v>6948</v>
+      </c>
+      <c r="M2" s="88">
+        <v>6932</v>
       </c>
       <c r="N2" s="88">
         <v>34728.75</v>
@@ -5079,13 +5722,17 @@
         <v>10.01</v>
       </c>
       <c r="T2" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="U2" s="47" t="e" vm="1">
+        <v>184</v>
+      </c>
+      <c r="U2" s="90">
+        <f>(K2-J2)/(J2-M2)</f>
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="X2" s="47" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="165" customHeight="1">
+    <row r="3" spans="1:24" ht="165" customHeight="1">
       <c r="A3" s="93">
         <v>46029.993055555555</v>
       </c>
@@ -5096,19 +5743,19 @@
         <v>132</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="87" t="s">
         <v>146</v>
       </c>
       <c r="F3" s="87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3" s="87">
         <v>1</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I3" s="88">
         <v>0</v>
@@ -5144,11 +5791,15 @@
         <f>SUM($R$2:R3)</f>
         <v>10.420000000000025</v>
       </c>
-      <c r="U3" s="87" t="e" vm="2">
+      <c r="U3" s="90">
+        <f t="shared" ref="U3:U6" si="0">(K3-J3)/(J3-M3)</f>
+        <v>0.82926829268296742</v>
+      </c>
+      <c r="X3" s="87" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="165.75" customHeight="1">
+    <row r="4" spans="1:24" ht="165.75" customHeight="1">
       <c r="A4" s="93">
         <v>46029.895833333336</v>
       </c>
@@ -5159,25 +5810,25 @@
         <v>122</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E4" s="87" t="s">
         <v>146</v>
       </c>
       <c r="F4" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4" s="87">
         <v>1</v>
       </c>
       <c r="H4" s="87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I4" s="88">
         <v>0</v>
       </c>
       <c r="J4" s="88">
-        <v>6498.13</v>
+        <v>6948.13</v>
       </c>
       <c r="K4" s="88">
         <v>6952.17</v>
@@ -5207,12 +5858,18 @@
         <f>SUM($R$2:R4)</f>
         <v>10.55000000000002</v>
       </c>
-      <c r="U4" s="87" t="e" vm="3">
+      <c r="U4" s="90">
+        <f t="shared" si="0"/>
+        <v>0.8047808764939467</v>
+      </c>
+      <c r="X4" s="87" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="89"/>
+    <row r="5" spans="1:24">
+      <c r="A5" s="93">
+        <v>46029.895833333336</v>
+      </c>
       <c r="I5" s="88"/>
       <c r="J5" s="88"/>
       <c r="K5" s="88"/>
@@ -5221,19 +5878,70 @@
       <c r="N5" s="88"/>
       <c r="O5" s="88"/>
       <c r="P5" s="88"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="S5" s="87">
+        <f>SUM($R$2:R5)</f>
+        <v>10.55000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="187" customHeight="1">
+      <c r="A6" s="93">
+        <v>46050.947916666664</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="87">
+        <v>6</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="88">
+        <v>0</v>
+      </c>
+      <c r="J6" s="88">
+        <v>6997.5</v>
+      </c>
+      <c r="K6" s="88">
+        <v>7004.75</v>
+      </c>
+      <c r="L6" s="88">
+        <v>7004.75</v>
+      </c>
+      <c r="M6" s="88">
+        <v>6987.75</v>
+      </c>
       <c r="N6" s="88"/>
       <c r="O6" s="88"/>
       <c r="P6" s="88"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="R6" s="87">
+        <v>181</v>
+      </c>
+      <c r="S6" s="87">
+        <f>SUM($R$2:R6)</f>
+        <v>191.55</v>
+      </c>
+      <c r="U6" s="90">
+        <f t="shared" si="0"/>
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="X6" s="87" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="89"/>
       <c r="I7" s="88"/>
       <c r="J7" s="88"/>
@@ -5244,7 +5952,7 @@
       <c r="O7" s="88"/>
       <c r="P7" s="88"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:24">
       <c r="A8" s="89"/>
       <c r="I8" s="88"/>
       <c r="J8" s="88"/>
@@ -5255,7 +5963,7 @@
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:24">
       <c r="A9" s="89"/>
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
@@ -5266,7 +5974,7 @@
       <c r="O9" s="88"/>
       <c r="P9" s="88"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:24">
       <c r="A10" s="89"/>
       <c r="I10" s="88"/>
       <c r="J10" s="88"/>
@@ -5277,7 +5985,7 @@
       <c r="O10" s="88"/>
       <c r="P10" s="88"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:24">
       <c r="A11" s="89"/>
       <c r="I11" s="88"/>
       <c r="J11" s="88"/>
@@ -5288,7 +5996,7 @@
       <c r="O11" s="88"/>
       <c r="P11" s="88"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:24">
       <c r="A12" s="89"/>
       <c r="I12" s="88"/>
       <c r="J12" s="88"/>
@@ -5299,7 +6007,7 @@
       <c r="O12" s="88"/>
       <c r="P12" s="88"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:24">
       <c r="A13" s="89"/>
       <c r="I13" s="88"/>
       <c r="J13" s="88"/>
@@ -5310,7 +6018,7 @@
       <c r="O13" s="88"/>
       <c r="P13" s="88"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:24">
       <c r="A14" s="89"/>
       <c r="I14" s="88"/>
       <c r="J14" s="88"/>
@@ -5321,7 +6029,7 @@
       <c r="O14" s="88"/>
       <c r="P14" s="88"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:24">
       <c r="A15" s="89"/>
       <c r="I15" s="88"/>
       <c r="J15" s="88"/>
@@ -5332,7 +6040,7 @@
       <c r="O15" s="88"/>
       <c r="P15" s="88"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:24">
       <c r="A16" s="89"/>
       <c r="I16" s="88"/>
       <c r="J16" s="88"/>
@@ -7369,7 +8077,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="R2:R4 R5:S200">
+  <conditionalFormatting sqref="R2:R6 R7:S200">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -7418,9 +8126,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0557E6-EDA7-48C4-BDD9-F0E196AAEF61}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
@@ -7850,6 +8560,23 @@
       </c>
       <c r="D25" s="85">
         <f>COUNTIF(日志重制!C:C,A25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" s="90">
+        <f>SUMIF(日志重制!C:C,A26,日志重制!R:R)</f>
+        <v>181</v>
+      </c>
+      <c r="C26" s="91">
+        <f>IFERROR(COUNTIFS(日志重制!C:C,入场理由!A26,日志重制!Q:Q,"盈利")/COUNTIF(日志重制!C:C,入场理由!A26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="85">
+        <f>COUNTIF(日志重制!C:C,A26)</f>
         <v>1</v>
       </c>
     </row>
@@ -7880,7 +8607,7 @@
         <v>150</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="85" t="s">
         <v>19</v>
@@ -7891,7 +8618,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="85">
         <f>SUMIF(日志重制!D:D,入场类型!A2,日志重制!R:R)</f>
@@ -7908,7 +8635,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="85">
         <f>SUMIF(日志重制!D:D,入场类型!A3,日志重制!R:R)</f>
@@ -7925,11 +8652,11 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="85">
         <f>SUMIF(日志重制!D:D,入场类型!A4,日志重制!R:R)</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="C4" s="91">
         <f>IFERROR(COUNTIFS(日志重制!D:D,A4,日志重制!Q:Q,"盈利")/COUNTIF(日志重制!D:D,A4),0)</f>
@@ -7937,12 +8664,12 @@
       </c>
       <c r="D4" s="85">
         <f>COUNTIF(日志重制!D:D,A4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="85">
         <f>SUMIF(日志重制!D:D,入场类型!A5,日志重制!R:R)</f>
@@ -7965,10 +8692,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91DC64D-2B67-4D8B-80B2-27749E88726E}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -7988,12 +8715,12 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8003,17 +8730,17 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8023,22 +8750,27 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="85" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="85" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8804,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A2)</f>
@@ -8081,7 +8813,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A3)</f>
@@ -8090,7 +8822,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A4)</f>
@@ -8099,7 +8831,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A5)</f>
@@ -8108,7 +8840,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A6)</f>
@@ -8117,7 +8849,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A7)</f>
@@ -8126,7 +8858,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A8)</f>
@@ -8135,7 +8867,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A9)</f>
@@ -8144,7 +8876,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" s="85">
         <f>COUNTIF(日志重制!T2:T1048576,错误类型1!A10)</f>
